--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H2">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.66221836526</v>
+        <v>24.759128</v>
       </c>
       <c r="N2">
-        <v>24.66221836526</v>
+        <v>74.277384</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="Q2">
-        <v>27.26976769316027</v>
+        <v>130.1479491692347</v>
       </c>
       <c r="R2">
-        <v>27.26976769316027</v>
+        <v>1171.331542523112</v>
       </c>
       <c r="S2">
-        <v>0.0008020768709054698</v>
+        <v>0.003708758897853858</v>
       </c>
       <c r="T2">
-        <v>0.0008020768709054698</v>
+        <v>0.003708758897853857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1308.15334255235</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H3">
-        <v>1308.15334255235</v>
+        <v>15.769693</v>
       </c>
       <c r="I3">
-        <v>0.9489107107804025</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J3">
-        <v>0.9489107107804025</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>24.66221836526</v>
+        <v>0.2610326666666667</v>
       </c>
       <c r="N3">
-        <v>24.66221836526</v>
+        <v>0.7830980000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0104328933032964</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.0104328933032964</v>
       </c>
       <c r="Q3">
-        <v>32261.96338927082</v>
+        <v>1.372135005434889</v>
       </c>
       <c r="R3">
-        <v>32261.96338927082</v>
+        <v>12.349215048914</v>
       </c>
       <c r="S3">
-        <v>0.9489107107804025</v>
+        <v>3.910102266648972E-05</v>
       </c>
       <c r="T3">
-        <v>0.9489107107804025</v>
+        <v>3.910102266648971E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.3251579671598</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H4">
-        <v>69.3251579671598</v>
+        <v>3938.110352</v>
       </c>
       <c r="I4">
-        <v>0.05028721234869202</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J4">
-        <v>0.05028721234869202</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.66221836526</v>
+        <v>24.759128</v>
       </c>
       <c r="N4">
-        <v>24.66221836526</v>
+        <v>74.277384</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="Q4">
-        <v>1709.712183992239</v>
+        <v>32501.39276109769</v>
       </c>
       <c r="R4">
-        <v>1709.712183992239</v>
+        <v>292512.5348498792</v>
       </c>
       <c r="S4">
-        <v>0.05028721234869202</v>
+        <v>0.9261754054888949</v>
       </c>
       <c r="T4">
-        <v>0.05028721234869202</v>
+        <v>0.9261754054888947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1312.703450666667</v>
+      </c>
+      <c r="H5">
+        <v>3938.110352</v>
+      </c>
+      <c r="I5">
+        <v>0.93593996730609</v>
+      </c>
+      <c r="J5">
+        <v>0.9359399673060897</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2610326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.7830980000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="P5">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="Q5">
+        <v>342.6584822700551</v>
+      </c>
+      <c r="R5">
+        <v>3083.926340430496</v>
+      </c>
+      <c r="S5">
+        <v>0.00976456181719516</v>
+      </c>
+      <c r="T5">
+        <v>0.009764561817195157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>84.59089266666666</v>
+      </c>
+      <c r="H6">
+        <v>253.772678</v>
+      </c>
+      <c r="I6">
+        <v>0.06031217277338979</v>
+      </c>
+      <c r="J6">
+        <v>0.06031217277338978</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>24.759128</v>
+      </c>
+      <c r="N6">
+        <v>74.277384</v>
+      </c>
+      <c r="O6">
+        <v>0.9895671066967037</v>
+      </c>
+      <c r="P6">
+        <v>0.9895671066967037</v>
+      </c>
+      <c r="Q6">
+        <v>2094.396739168261</v>
+      </c>
+      <c r="R6">
+        <v>18849.57065251435</v>
+      </c>
+      <c r="S6">
+        <v>0.05968294230995504</v>
+      </c>
+      <c r="T6">
+        <v>0.05968294230995503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>84.59089266666666</v>
+      </c>
+      <c r="H7">
+        <v>253.772678</v>
+      </c>
+      <c r="I7">
+        <v>0.06031217277338979</v>
+      </c>
+      <c r="J7">
+        <v>0.06031217277338978</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2610326666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.7830980000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="P7">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="Q7">
+        <v>22.08098628849378</v>
+      </c>
+      <c r="R7">
+        <v>198.728876596444</v>
+      </c>
+      <c r="S7">
+        <v>0.0006292304634347539</v>
+      </c>
+      <c r="T7">
+        <v>0.0006292304634347538</v>
       </c>
     </row>
   </sheetData>
